--- a/Code/Results/Cases/Case_8_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.62819393067226</v>
+        <v>25.10629606638635</v>
       </c>
       <c r="C2">
-        <v>17.47851041096362</v>
+        <v>18.18947155686499</v>
       </c>
       <c r="D2">
-        <v>2.195170098186931</v>
+        <v>2.772793241547684</v>
       </c>
       <c r="E2">
-        <v>5.497652805211336</v>
+        <v>6.071274977068509</v>
       </c>
       <c r="F2">
-        <v>39.48079600982744</v>
+        <v>35.79910535306148</v>
       </c>
       <c r="G2">
-        <v>2.126052003506512</v>
+        <v>6.524584396053077</v>
       </c>
       <c r="H2">
-        <v>3.137096433104726</v>
+        <v>2.631161447798853</v>
       </c>
       <c r="I2">
-        <v>3.715882276697206</v>
+        <v>3.218574802206854</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.09398845644535</v>
+        <v>22.21186559765815</v>
       </c>
       <c r="L2">
-        <v>5.519949176739367</v>
+        <v>17.77529966281335</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.30977946752743</v>
       </c>
       <c r="N2">
-        <v>8.369684080329383</v>
+        <v>5.617760057061731</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>13.85403210660982</v>
+        <v>8.657989658189102</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.14202935760737</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.01753764589275</v>
+        <v>23.5731573555225</v>
       </c>
       <c r="C3">
-        <v>16.2661584759951</v>
+        <v>16.93387097738315</v>
       </c>
       <c r="D3">
-        <v>2.109372928966621</v>
+        <v>2.759951626708542</v>
       </c>
       <c r="E3">
-        <v>5.324942620013058</v>
+        <v>5.972580616524321</v>
       </c>
       <c r="F3">
-        <v>38.12114834736285</v>
+        <v>34.57479613005864</v>
       </c>
       <c r="G3">
-        <v>2.133288933913601</v>
+        <v>7.373618204312682</v>
       </c>
       <c r="H3">
-        <v>3.470731705303259</v>
+        <v>2.895014829370205</v>
       </c>
       <c r="I3">
-        <v>3.990355884081151</v>
+        <v>3.423412161392432</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>24.53202108193801</v>
+        <v>21.77050384489326</v>
       </c>
       <c r="L3">
-        <v>5.425438413894187</v>
+        <v>17.59275499518134</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.83056588947778</v>
       </c>
       <c r="N3">
-        <v>8.05612769548536</v>
+        <v>5.552807490647385</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>14.00046384479889</v>
+        <v>8.337622815292804</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.27908616177128</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.97649442885512</v>
+        <v>22.57655723238828</v>
       </c>
       <c r="C4">
-        <v>15.51885663819175</v>
+        <v>16.11938894387529</v>
       </c>
       <c r="D4">
-        <v>2.055821410761344</v>
+        <v>2.752833097548815</v>
       </c>
       <c r="E4">
-        <v>5.216293713010206</v>
+        <v>5.910579020918058</v>
       </c>
       <c r="F4">
-        <v>37.27069662277173</v>
+        <v>33.80179622879836</v>
       </c>
       <c r="G4">
-        <v>2.137866226686794</v>
+        <v>7.91183550406905</v>
       </c>
       <c r="H4">
-        <v>3.681967962002767</v>
+        <v>3.062482445216981</v>
       </c>
       <c r="I4">
-        <v>4.164628938502982</v>
+        <v>3.554191061452237</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>24.18397332508443</v>
+        <v>21.49376676409911</v>
       </c>
       <c r="L4">
-        <v>5.365553449171589</v>
+        <v>17.47127006990783</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.54687568132395</v>
       </c>
       <c r="N4">
-        <v>7.858533653126666</v>
+        <v>5.511535111935642</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>14.0906437883144</v>
+        <v>8.135739355798485</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.36351468016534</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.53067089306713</v>
+        <v>22.14831399393938</v>
       </c>
       <c r="C5">
-        <v>15.20947598283664</v>
+        <v>15.77972084955716</v>
       </c>
       <c r="D5">
-        <v>2.033144937204162</v>
+        <v>2.750369579002314</v>
       </c>
       <c r="E5">
-        <v>5.171072642869619</v>
+        <v>5.884818523100364</v>
       </c>
       <c r="F5">
-        <v>36.90385304011612</v>
+        <v>33.46575267552355</v>
       </c>
       <c r="G5">
-        <v>2.139779619031271</v>
+        <v>8.137094561197632</v>
       </c>
       <c r="H5">
-        <v>3.770325073579839</v>
+        <v>3.132626778625013</v>
       </c>
       <c r="I5">
-        <v>4.23981059025343</v>
+        <v>3.611908490690611</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>24.02945001276929</v>
+        <v>21.36839267466247</v>
       </c>
       <c r="L5">
-        <v>5.340180155207185</v>
+        <v>17.41010597259044</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.42654264704135</v>
       </c>
       <c r="N5">
-        <v>7.777721898380347</v>
+        <v>5.493994762060988</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>14.12548538592534</v>
+        <v>8.053114734174571</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.39670360706633</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.44526670056138</v>
+        <v>22.066218502352</v>
       </c>
       <c r="C6">
-        <v>15.16186644521247</v>
+        <v>15.72663108874531</v>
       </c>
       <c r="D6">
-        <v>2.028612307246764</v>
+        <v>2.750285990031913</v>
       </c>
       <c r="E6">
-        <v>5.163202952578956</v>
+        <v>5.880364111740892</v>
       </c>
       <c r="F6">
-        <v>36.82228216472553</v>
+        <v>33.39008982517145</v>
       </c>
       <c r="G6">
-        <v>2.140115893470225</v>
+        <v>8.176701982105405</v>
       </c>
       <c r="H6">
-        <v>3.785863744972215</v>
+        <v>3.144969900471834</v>
       </c>
       <c r="I6">
-        <v>4.255802799317849</v>
+        <v>3.625609012225187</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>23.98903622388693</v>
+        <v>21.3337725028345</v>
       </c>
       <c r="L6">
-        <v>5.335339787912289</v>
+        <v>17.38847763117991</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.3973061878207</v>
       </c>
       <c r="N6">
-        <v>7.765347813847316</v>
+        <v>5.490616763949526</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>14.12885014934823</v>
+        <v>8.040375964937963</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.40064148806951</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.94218179955894</v>
+        <v>22.50191435260417</v>
       </c>
       <c r="C7">
-        <v>15.52606056762212</v>
+        <v>16.05678321555424</v>
       </c>
       <c r="D7">
-        <v>2.053443023921244</v>
+        <v>2.755281702463261</v>
       </c>
       <c r="E7">
-        <v>5.214824305166104</v>
+        <v>5.910710793847971</v>
       </c>
       <c r="F7">
-        <v>37.2105385401871</v>
+        <v>33.64163180803189</v>
       </c>
       <c r="G7">
-        <v>2.13793630999484</v>
+        <v>7.973294968485026</v>
       </c>
       <c r="H7">
-        <v>3.685223643182536</v>
+        <v>3.06837809645139</v>
       </c>
       <c r="I7">
-        <v>4.174749728908685</v>
+        <v>3.56877465474186</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>24.14198011587617</v>
+        <v>21.39802862831681</v>
       </c>
       <c r="L7">
-        <v>5.363598831212204</v>
+        <v>17.39342024043412</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.47971110724596</v>
       </c>
       <c r="N7">
-        <v>7.860457962203165</v>
+        <v>5.50890889230336</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>14.08454184356041</v>
+        <v>8.131436671438601</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.35351479942156</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.04877275908197</v>
+        <v>24.42696526065284</v>
       </c>
       <c r="C8">
-        <v>17.08187266215159</v>
+        <v>17.56816860130021</v>
       </c>
       <c r="D8">
-        <v>2.163014844912728</v>
+        <v>2.7756131281203</v>
       </c>
       <c r="E8">
-        <v>5.4375158683959</v>
+        <v>6.039931828495337</v>
       </c>
       <c r="F8">
-        <v>38.94531476402608</v>
+        <v>34.98822012117085</v>
       </c>
       <c r="G8">
-        <v>2.128576937123086</v>
+        <v>7.073149131718893</v>
       </c>
       <c r="H8">
-        <v>3.253483948044087</v>
+        <v>2.733735491621272</v>
       </c>
       <c r="I8">
-        <v>3.821159784876708</v>
+        <v>3.311964682588189</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.84947959961706</v>
+        <v>21.830353031387</v>
       </c>
       <c r="L8">
-        <v>5.485680535753421</v>
+        <v>17.53118182220076</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.97538167449626</v>
       </c>
       <c r="N8">
-        <v>8.26648499366199</v>
+        <v>5.590307477492459</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>13.89602435934473</v>
+        <v>8.533057001714711</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.16564768236953</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.8071347685166</v>
+        <v>27.95855634781705</v>
       </c>
       <c r="C9">
-        <v>19.88481704943879</v>
+        <v>20.42405988861231</v>
       </c>
       <c r="D9">
-        <v>2.375321841830327</v>
+        <v>2.812100823562541</v>
       </c>
       <c r="E9">
-        <v>5.856479076397657</v>
+        <v>6.279692067908647</v>
       </c>
       <c r="F9">
-        <v>42.30245453733006</v>
+        <v>37.91607056302706</v>
       </c>
       <c r="G9">
-        <v>2.11116086708262</v>
+        <v>5.150944665051179</v>
       </c>
       <c r="H9">
-        <v>2.451847059279888</v>
+        <v>2.104956298461615</v>
       </c>
       <c r="I9">
-        <v>3.156675794150961</v>
+        <v>2.818563946438162</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>26.27811668712018</v>
+        <v>22.9023375417758</v>
       </c>
       <c r="L9">
-        <v>5.713770513894143</v>
+        <v>17.94769244545337</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.2109676188856</v>
       </c>
       <c r="N9">
-        <v>9.01464878706604</v>
+        <v>5.745533334621477</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>13.53905156310681</v>
+        <v>9.293609314815031</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.82751336853903</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.19813986990035</v>
+        <v>29.99905163261911</v>
       </c>
       <c r="C10">
-        <v>21.72825697690777</v>
+        <v>21.97324618310002</v>
       </c>
       <c r="D10">
-        <v>2.533478172055935</v>
+        <v>2.863541012405836</v>
       </c>
       <c r="E10">
-        <v>6.143319108014739</v>
+        <v>6.444099916851473</v>
       </c>
       <c r="F10">
-        <v>44.37848155011912</v>
+        <v>39.18098227577963</v>
       </c>
       <c r="G10">
-        <v>2.099192115330548</v>
+        <v>5.123717535148288</v>
       </c>
       <c r="H10">
-        <v>1.926173601945542</v>
+        <v>1.71902700203046</v>
       </c>
       <c r="I10">
-        <v>2.711087683152391</v>
+        <v>2.510832673832801</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>27.12919186915416</v>
+        <v>23.21641558383333</v>
       </c>
       <c r="L10">
-        <v>5.857993198746458</v>
+        <v>17.88040151692301</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.80426526302975</v>
       </c>
       <c r="N10">
-        <v>9.447166512087247</v>
+        <v>5.837544657645192</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>13.24816829124644</v>
+        <v>9.701314599810738</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.54544990597502</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.33826220737853</v>
+        <v>29.78789136203541</v>
       </c>
       <c r="C11">
-        <v>22.19028097008415</v>
+        <v>21.75179381799509</v>
       </c>
       <c r="D11">
-        <v>2.65192515214785</v>
+        <v>2.951663648448534</v>
       </c>
       <c r="E11">
-        <v>6.256598304055874</v>
+        <v>6.47451936223841</v>
       </c>
       <c r="F11">
-        <v>42.92770878190949</v>
+        <v>36.78575286083088</v>
       </c>
       <c r="G11">
-        <v>2.0960746630228</v>
+        <v>8.49030735430263</v>
       </c>
       <c r="H11">
-        <v>2.838901880124185</v>
+        <v>2.744933014049826</v>
       </c>
       <c r="I11">
-        <v>2.626664220662794</v>
+        <v>2.531365321747207</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.0830129768399</v>
+        <v>21.68636049452471</v>
       </c>
       <c r="L11">
-        <v>5.834175935400529</v>
+        <v>16.61620140616967</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.7793765225976</v>
       </c>
       <c r="N11">
-        <v>8.878655666579174</v>
+        <v>5.827442614774982</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.91415647976208</v>
+        <v>9.053062819016668</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.36162902909259</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.99223959247173</v>
+        <v>29.33318574342904</v>
       </c>
       <c r="C12">
-        <v>22.18777065316399</v>
+        <v>21.41829435685753</v>
       </c>
       <c r="D12">
-        <v>2.72094793520546</v>
+        <v>2.992145842237467</v>
       </c>
       <c r="E12">
-        <v>6.399815450583509</v>
+        <v>6.541548672694786</v>
       </c>
       <c r="F12">
-        <v>41.31438821083065</v>
+        <v>34.86203868341406</v>
       </c>
       <c r="G12">
-        <v>2.09575874620186</v>
+        <v>10.29197896685895</v>
       </c>
       <c r="H12">
-        <v>4.203318138003556</v>
+        <v>4.144982625803432</v>
       </c>
       <c r="I12">
-        <v>2.624636959470199</v>
+        <v>2.521481790563574</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.0657567301552</v>
+        <v>20.56644642762736</v>
       </c>
       <c r="L12">
-        <v>5.844919611247295</v>
+        <v>15.7526641680842</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.9601671730973</v>
       </c>
       <c r="N12">
-        <v>8.307260081174967</v>
+        <v>5.860274135761627</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.73744572680899</v>
+        <v>8.439273835668791</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.33530238701742</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.20655071286116</v>
+        <v>28.70060836367351</v>
       </c>
       <c r="C13">
-        <v>21.838873394853</v>
+        <v>21.10821844462206</v>
       </c>
       <c r="D13">
-        <v>2.753531019240397</v>
+        <v>2.98772911742972</v>
       </c>
       <c r="E13">
-        <v>6.565612488960672</v>
+        <v>6.667754803395363</v>
       </c>
       <c r="F13">
-        <v>39.37014264646571</v>
+        <v>33.28715245927641</v>
       </c>
       <c r="G13">
-        <v>2.097645904627194</v>
+        <v>9.958241394869303</v>
       </c>
       <c r="H13">
-        <v>5.635447287816906</v>
+        <v>5.580393470369179</v>
       </c>
       <c r="I13">
-        <v>2.702774293691921</v>
+        <v>2.551050592306354</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.94077755343945</v>
+        <v>19.7390354671016</v>
       </c>
       <c r="L13">
-        <v>5.878272817050759</v>
+        <v>15.16239279151685</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.29417872886329</v>
       </c>
       <c r="N13">
-        <v>7.696085660074324</v>
+        <v>5.926235791040755</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.66166362350868</v>
+        <v>7.821500449749341</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.38254176175102</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.44025819191314</v>
+        <v>28.15824036068092</v>
       </c>
       <c r="C14">
-        <v>21.43567346645386</v>
+        <v>20.89386533264782</v>
       </c>
       <c r="D14">
-        <v>2.759222636031204</v>
+        <v>2.974752089201002</v>
       </c>
       <c r="E14">
-        <v>6.70141677584166</v>
+        <v>6.807822648447183</v>
       </c>
       <c r="F14">
-        <v>37.83114009225398</v>
+        <v>32.30154855865307</v>
       </c>
       <c r="G14">
-        <v>2.099962936814454</v>
+        <v>8.812853755794404</v>
       </c>
       <c r="H14">
-        <v>6.655657761789234</v>
+        <v>6.59576343885028</v>
       </c>
       <c r="I14">
-        <v>2.796702959421148</v>
+        <v>2.609089114935537</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.09266109272619</v>
+        <v>19.26747610066536</v>
       </c>
       <c r="L14">
-        <v>5.918230783149115</v>
+        <v>14.85023848008705</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.88133875215149</v>
       </c>
       <c r="N14">
-        <v>7.25141300627987</v>
+        <v>5.993099925884333</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.65777955467036</v>
+        <v>7.386347881572358</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.43803869419683</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.1487340060365</v>
+        <v>27.97183569287467</v>
       </c>
       <c r="C15">
-        <v>21.26525718166822</v>
+        <v>20.83914327505611</v>
       </c>
       <c r="D15">
-        <v>2.751854503639529</v>
+        <v>2.96899114484734</v>
       </c>
       <c r="E15">
-        <v>6.72533290352208</v>
+        <v>6.848135705644759</v>
       </c>
       <c r="F15">
-        <v>37.36844006502012</v>
+        <v>32.09965685031083</v>
       </c>
       <c r="G15">
-        <v>2.101029913870284</v>
+        <v>8.165656457001441</v>
       </c>
       <c r="H15">
-        <v>6.896686840939346</v>
+        <v>6.832596390832564</v>
       </c>
       <c r="I15">
-        <v>2.842082300083253</v>
+        <v>2.638529919632721</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.8514081337362</v>
+        <v>19.18930612421469</v>
       </c>
       <c r="L15">
-        <v>5.924866060931907</v>
+        <v>14.81059436621369</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.79605864589138</v>
       </c>
       <c r="N15">
-        <v>7.134853384341215</v>
+        <v>6.009004444716585</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.67291342176646</v>
+        <v>7.278020538105588</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.45766071643291</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.25164867256342</v>
+        <v>27.49195290724217</v>
       </c>
       <c r="C16">
-        <v>20.5563226262613</v>
+        <v>20.71135685600496</v>
       </c>
       <c r="D16">
-        <v>2.677464100696007</v>
+        <v>2.944904675593448</v>
       </c>
       <c r="E16">
-        <v>6.570397976673608</v>
+        <v>6.817298806806652</v>
       </c>
       <c r="F16">
-        <v>36.76439010513295</v>
+        <v>32.53162910169873</v>
       </c>
       <c r="G16">
-        <v>2.105768007204197</v>
+        <v>5.512103170984325</v>
       </c>
       <c r="H16">
-        <v>6.736621484497489</v>
+        <v>6.639790013383003</v>
       </c>
       <c r="I16">
-        <v>3.021249403381538</v>
+        <v>2.744646625349226</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.66566790771147</v>
+        <v>19.58789124881266</v>
       </c>
       <c r="L16">
-        <v>5.852871348955712</v>
+        <v>15.19802889830641</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.97922908449195</v>
       </c>
       <c r="N16">
-        <v>7.055621369405257</v>
+        <v>5.963059594714267</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.80637775540731</v>
+        <v>7.249665327272549</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.51357228696547</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.97759875586248</v>
+        <v>27.36686535704501</v>
       </c>
       <c r="C17">
-        <v>20.22792117005763</v>
+        <v>20.64954889020741</v>
       </c>
       <c r="D17">
-        <v>2.616872918822384</v>
+        <v>2.928261623091061</v>
       </c>
       <c r="E17">
-        <v>6.367578434159141</v>
+        <v>6.684471935175303</v>
       </c>
       <c r="F17">
-        <v>37.14087224913358</v>
+        <v>33.28161185346884</v>
       </c>
       <c r="G17">
-        <v>2.108185566143602</v>
+        <v>4.852038568853913</v>
       </c>
       <c r="H17">
-        <v>6.051449128159652</v>
+        <v>5.924950725354897</v>
       </c>
       <c r="I17">
-        <v>3.109914011373207</v>
+        <v>2.799420044325581</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.97932065333714</v>
+        <v>20.08772015066851</v>
       </c>
       <c r="L17">
-        <v>5.771074482029218</v>
+        <v>15.62896632661547</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.28912806233219</v>
       </c>
       <c r="N17">
-        <v>7.234153621869771</v>
+        <v>5.885515873744339</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.90866498117041</v>
+        <v>7.457174882304801</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.54933358964185</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.23866321624051</v>
+        <v>27.63101958233619</v>
       </c>
       <c r="C18">
-        <v>20.19108714433362</v>
+        <v>20.74684072722702</v>
       </c>
       <c r="D18">
-        <v>2.563059658279464</v>
+        <v>2.902491171929419</v>
       </c>
       <c r="E18">
-        <v>6.145740546700684</v>
+        <v>6.500664840825028</v>
       </c>
       <c r="F18">
-        <v>38.44079367890109</v>
+        <v>34.61354853758058</v>
       </c>
       <c r="G18">
-        <v>2.10876678420602</v>
+        <v>4.670465068927656</v>
       </c>
       <c r="H18">
-        <v>4.870330565696297</v>
+        <v>4.707092930963862</v>
       </c>
       <c r="I18">
-        <v>3.11725038007892</v>
+        <v>2.796468643614299</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.7887055636373</v>
+        <v>20.86545840794763</v>
       </c>
       <c r="L18">
-        <v>5.699730064540999</v>
+        <v>16.24634400437468</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.8438769064208</v>
       </c>
       <c r="N18">
-        <v>7.662693327873586</v>
+        <v>5.79987040690277</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>13.01617045950835</v>
+        <v>7.909343999593426</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.57684608773033</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.86044107191396</v>
+        <v>28.17220098869985</v>
       </c>
       <c r="C19">
-        <v>20.40719058242435</v>
+        <v>21.02671952445715</v>
       </c>
       <c r="D19">
-        <v>2.513093073601678</v>
+        <v>2.871656698884751</v>
       </c>
       <c r="E19">
-        <v>5.997780519464619</v>
+        <v>6.36516039610643</v>
       </c>
       <c r="F19">
-        <v>40.28360945703408</v>
+        <v>36.29586351822374</v>
       </c>
       <c r="G19">
-        <v>2.107800405134314</v>
+        <v>4.516543075758928</v>
       </c>
       <c r="H19">
-        <v>3.496294402542484</v>
+        <v>3.280701237315194</v>
       </c>
       <c r="I19">
-        <v>3.075350972226292</v>
+        <v>2.76722081050161</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.8743168019178</v>
+        <v>21.79556768560618</v>
       </c>
       <c r="L19">
-        <v>5.684058359290396</v>
+        <v>16.95800809524279</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>15.5422250811819</v>
       </c>
       <c r="N19">
-        <v>8.274121335015446</v>
+        <v>5.754097116456621</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>13.14037208047658</v>
+        <v>8.541505277052535</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.61050288848525</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.51225089141317</v>
+        <v>29.52709269274713</v>
       </c>
       <c r="C20">
-        <v>21.27969224612581</v>
+        <v>21.78899491738825</v>
       </c>
       <c r="D20">
-        <v>2.486280693909365</v>
+        <v>2.84325902817788</v>
       </c>
       <c r="E20">
-        <v>6.065324909108534</v>
+        <v>6.396940828934011</v>
       </c>
       <c r="F20">
-        <v>43.67910818413603</v>
+        <v>39.01918226408875</v>
       </c>
       <c r="G20">
-        <v>2.102438106857472</v>
+        <v>4.342459490444353</v>
       </c>
       <c r="H20">
-        <v>2.067807773572813</v>
+        <v>1.811897540781682</v>
       </c>
       <c r="I20">
-        <v>2.86066547139344</v>
+        <v>2.620508566334446</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>26.78742292960495</v>
+        <v>23.20836434649199</v>
       </c>
       <c r="L20">
-        <v>5.815433053757267</v>
+        <v>17.95392418795235</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.70382801851802</v>
       </c>
       <c r="N20">
-        <v>9.339273719140726</v>
+        <v>5.814004630222447</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>13.3049731854688</v>
+        <v>9.618056696832278</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.62375799790737</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.43915503578395</v>
+        <v>30.56303705239631</v>
       </c>
       <c r="C21">
-        <v>22.69602776470854</v>
+        <v>22.02902378017736</v>
       </c>
       <c r="D21">
-        <v>2.59937459994042</v>
+        <v>2.980305995053809</v>
       </c>
       <c r="E21">
-        <v>6.301017953981372</v>
+        <v>6.569330283401277</v>
       </c>
       <c r="F21">
-        <v>45.68876962441174</v>
+        <v>38.73684833871976</v>
       </c>
       <c r="G21">
-        <v>2.092970726038335</v>
+        <v>9.9728502837512</v>
       </c>
       <c r="H21">
-        <v>1.617014247293676</v>
+        <v>1.596720001095708</v>
       </c>
       <c r="I21">
-        <v>2.513512305390895</v>
+        <v>2.614004268772374</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>27.70675331999787</v>
+        <v>22.73117294999068</v>
       </c>
       <c r="L21">
-        <v>5.948447206571053</v>
+        <v>17.37384159786929</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.6090681217364</v>
       </c>
       <c r="N21">
-        <v>9.798007234836721</v>
+        <v>5.880025239908545</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>13.12470765423107</v>
+        <v>9.964680939060104</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.3703458117094</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.62647726405455</v>
+        <v>31.14972831466886</v>
       </c>
       <c r="C22">
-        <v>23.56006817817739</v>
+        <v>22.09124146646523</v>
       </c>
       <c r="D22">
-        <v>2.678563982361525</v>
+        <v>3.130932577418979</v>
       </c>
       <c r="E22">
-        <v>6.449282308342329</v>
+        <v>6.694402903290578</v>
       </c>
       <c r="F22">
-        <v>46.90147502221386</v>
+        <v>38.37757601286111</v>
       </c>
       <c r="G22">
-        <v>2.086940964069123</v>
+        <v>14.79826274408222</v>
       </c>
       <c r="H22">
-        <v>1.775112493185727</v>
+        <v>1.763712777072712</v>
       </c>
       <c r="I22">
-        <v>2.727314807887671</v>
+        <v>2.730026275486618</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>28.26569213976145</v>
+        <v>22.33092230445235</v>
       </c>
       <c r="L22">
-        <v>6.028426493298316</v>
+        <v>16.93986180584891</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.47578493526856</v>
       </c>
       <c r="N22">
-        <v>10.04286015448735</v>
+        <v>5.919796541261191</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>13.00137857371183</v>
+        <v>10.12981176801249</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.22206149017051</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.02216608621271</v>
+        <v>30.94545719670736</v>
       </c>
       <c r="C23">
-        <v>23.09262359848264</v>
+        <v>22.17980275301299</v>
       </c>
       <c r="D23">
-        <v>2.638499179630528</v>
+        <v>3.020840244771942</v>
       </c>
       <c r="E23">
-        <v>6.371149893855037</v>
+        <v>6.620028998206556</v>
       </c>
       <c r="F23">
-        <v>46.30993619559023</v>
+        <v>38.84230860496595</v>
       </c>
       <c r="G23">
-        <v>2.09010637949006</v>
+        <v>11.39724278844572</v>
       </c>
       <c r="H23">
-        <v>1.633627996663444</v>
+        <v>1.682498318643599</v>
       </c>
       <c r="I23">
-        <v>2.609006255212186</v>
+        <v>2.667683421910715</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>28.00905402575802</v>
+        <v>22.7100508064116</v>
       </c>
       <c r="L23">
-        <v>5.987477550630139</v>
+        <v>17.29127378967097</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.67644565272712</v>
       </c>
       <c r="N23">
-        <v>9.909795812293661</v>
+        <v>5.90173344489647</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>13.07427447424472</v>
+        <v>10.05258739840784</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.30518698249794</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.60106914621478</v>
+        <v>29.61083724666182</v>
       </c>
       <c r="C24">
-        <v>21.27408189346453</v>
+        <v>21.7979298741498</v>
       </c>
       <c r="D24">
-        <v>2.483200758797002</v>
+        <v>2.837535520641937</v>
       </c>
       <c r="E24">
-        <v>6.071905202521207</v>
+        <v>6.403630894051675</v>
       </c>
       <c r="F24">
-        <v>43.94538310460715</v>
+        <v>39.27731003278203</v>
       </c>
       <c r="G24">
-        <v>2.102314513627103</v>
+        <v>4.296930511893034</v>
       </c>
       <c r="H24">
-        <v>2.045556536264612</v>
+        <v>1.789756630970605</v>
       </c>
       <c r="I24">
-        <v>2.837008251143595</v>
+        <v>2.593298333809177</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>26.96450591551598</v>
+        <v>23.37195585013691</v>
       </c>
       <c r="L24">
-        <v>5.827817019322294</v>
+        <v>18.08048806673314</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.82474095479343</v>
       </c>
       <c r="N24">
-        <v>9.398461989127597</v>
+        <v>5.822028587872424</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>13.33868834823772</v>
+        <v>9.680189083871781</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.64055074744687</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.79212097659479</v>
+        <v>27.05985750294597</v>
       </c>
       <c r="C25">
-        <v>19.1747662086669</v>
+        <v>19.78521289536605</v>
       </c>
       <c r="D25">
-        <v>2.314845078692652</v>
+        <v>2.800301706737182</v>
       </c>
       <c r="E25">
-        <v>5.743516790009758</v>
+        <v>6.213947639713026</v>
       </c>
       <c r="F25">
-        <v>41.32050613618185</v>
+        <v>37.19170451122793</v>
       </c>
       <c r="G25">
-        <v>2.115845471571467</v>
+        <v>5.501471799296453</v>
       </c>
       <c r="H25">
-        <v>2.667298704082053</v>
+        <v>2.26902165085901</v>
       </c>
       <c r="I25">
-        <v>3.349324880821294</v>
+        <v>2.964477031007938</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>25.82758712656879</v>
+        <v>22.63108816253767</v>
       </c>
       <c r="L25">
-        <v>5.650789471885639</v>
+        <v>17.85332017892137</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.88080743645899</v>
       </c>
       <c r="N25">
-        <v>8.822120849808931</v>
+        <v>5.704295816139322</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>13.6244357894856</v>
+        <v>9.105503673831578</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.91992716909093</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
